--- a/fintastic/exercise2.xlsx
+++ b/fintastic/exercise2.xlsx
@@ -1,93 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Values" sheetId="1" r:id="rId4"/>
-    <sheet name="Formula" sheetId="2" r:id="rId5"/>
-    <sheet name="Expected Output" sheetId="3" r:id="rId6"/>
+    <sheet name="Values" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Formula" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Expected Output" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Results" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
+  <definedNames/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
-  <si>
-    <t>Table 1</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>int_1</t>
-  </si>
-  <si>
-    <t>ADD(A,B)</t>
-  </si>
-  <si>
-    <t>int_2</t>
-  </si>
-  <si>
-    <t>MIN(int_1, C)</t>
-  </si>
-  <si>
-    <t>final</t>
-  </si>
-  <si>
-    <t>MUL(int_2, C)</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
+      <name val="Helvetica Neue"/>
       <b val="1"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -220,74 +171,74 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="ff000000"/>
@@ -1360,550 +1311,737 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" defaultGridColor="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col width="16.3516" customWidth="1" style="18" min="1" max="7"/>
+    <col width="16.3516" customWidth="1" style="18" min="8" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="5">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6">
+    <row r="1" ht="27.65" customHeight="1" s="19">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Table 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20.25" customHeight="1" s="19">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="n"/>
+      <c r="E2" s="4" t="n"/>
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="4" t="n"/>
+    </row>
+    <row r="3" ht="20.25" customHeight="1" s="19">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
         <v>-10</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8" t="n">
         <v>2011</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="9">
-        <v>5</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="D3" s="8" t="n"/>
+      <c r="E3" s="8" t="n"/>
+      <c r="F3" s="8" t="n"/>
+      <c r="G3" s="8" t="n"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1" s="19">
+      <c r="A4" s="9" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B4" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="12" t="n">
         <v>2011</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="D4" s="12" t="n"/>
+      <c r="E4" s="12" t="n"/>
+      <c r="F4" s="12" t="n"/>
+      <c r="G4" s="12" t="n"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1" s="19">
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B5" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="C5" s="12" t="n"/>
+      <c r="D5" s="12" t="n"/>
+      <c r="E5" s="12" t="n"/>
+      <c r="F5" s="12" t="n"/>
+      <c r="G5" s="12" t="n"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1" s="19">
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B6" s="14" t="n">
         <v>-12</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="12" t="n">
         <v>2012</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7" s="10">
+      <c r="D6" s="12" t="n"/>
+      <c r="E6" s="12" t="n"/>
+      <c r="F6" s="12" t="n"/>
+      <c r="G6" s="12" t="n"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1" s="19">
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B7" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="12" t="n">
         <v>2012</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="E7" s="12" t="n"/>
+      <c r="F7" s="12" t="n"/>
+      <c r="G7" s="12" t="n"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1" s="19">
+      <c r="A8" s="13" t="n"/>
+      <c r="B8" s="14" t="n"/>
+      <c r="C8" s="12" t="n"/>
+      <c r="D8" s="12" t="n"/>
+      <c r="E8" s="12" t="n"/>
+      <c r="F8" s="12" t="n"/>
+      <c r="G8" s="12" t="n"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1" s="19">
+      <c r="A9" s="13" t="n"/>
+      <c r="B9" s="14" t="n"/>
+      <c r="C9" s="12" t="n"/>
+      <c r="D9" s="12" t="n"/>
+      <c r="E9" s="12" t="n"/>
+      <c r="F9" s="12" t="n"/>
+      <c r="G9" s="12" t="n"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1" s="19">
+      <c r="A10" s="13" t="n"/>
+      <c r="B10" s="14" t="n"/>
+      <c r="C10" s="12" t="n"/>
+      <c r="D10" s="12" t="n"/>
+      <c r="E10" s="12" t="n"/>
+      <c r="F10" s="12" t="n"/>
+      <c r="G10" s="12" t="n"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1" s="19">
+      <c r="A11" s="13" t="n"/>
+      <c r="B11" s="14" t="n"/>
+      <c r="C11" s="12" t="n"/>
+      <c r="D11" s="12" t="n"/>
+      <c r="E11" s="12" t="n"/>
+      <c r="F11" s="12" t="n"/>
+      <c r="G11" s="12" t="n"/>
+    </row>
+    <row r="12" ht="20.05" customHeight="1" s="19">
+      <c r="A12" s="13" t="n"/>
+      <c r="B12" s="14" t="n"/>
+      <c r="C12" s="12" t="n"/>
+      <c r="D12" s="12" t="n"/>
+      <c r="E12" s="12" t="n"/>
+      <c r="F12" s="12" t="n"/>
+      <c r="G12" s="12" t="n"/>
+    </row>
+    <row r="13" ht="20.05" customHeight="1" s="19">
+      <c r="A13" s="13" t="n"/>
+      <c r="B13" s="14" t="n"/>
+      <c r="C13" s="12" t="n"/>
+      <c r="D13" s="12" t="n"/>
+      <c r="E13" s="12" t="n"/>
+      <c r="F13" s="12" t="n"/>
+      <c r="G13" s="12" t="n"/>
+    </row>
+    <row r="14" ht="20.05" customHeight="1" s="19">
+      <c r="A14" s="13" t="n"/>
+      <c r="B14" s="14" t="n"/>
+      <c r="C14" s="12" t="n"/>
+      <c r="D14" s="12" t="n"/>
+      <c r="E14" s="12" t="n"/>
+      <c r="F14" s="12" t="n"/>
+      <c r="G14" s="12" t="n"/>
+    </row>
+    <row r="15" ht="20.05" customHeight="1" s="19">
+      <c r="A15" s="13" t="n"/>
+      <c r="B15" s="14" t="n"/>
+      <c r="C15" s="12" t="n"/>
+      <c r="D15" s="12" t="n"/>
+      <c r="E15" s="12" t="n"/>
+      <c r="F15" s="12" t="n"/>
+      <c r="G15" s="12" t="n"/>
+    </row>
+    <row r="16" ht="20.05" customHeight="1" s="19">
+      <c r="A16" s="13" t="n"/>
+      <c r="B16" s="14" t="n"/>
+      <c r="C16" s="12" t="n"/>
+      <c r="D16" s="12" t="n"/>
+      <c r="E16" s="12" t="n"/>
+      <c r="F16" s="12" t="n"/>
+      <c r="G16" s="12" t="n"/>
+    </row>
+    <row r="17" ht="20.05" customHeight="1" s="19">
+      <c r="A17" s="13" t="n"/>
+      <c r="B17" s="14" t="n"/>
+      <c r="C17" s="12" t="n"/>
+      <c r="D17" s="12" t="n"/>
+      <c r="E17" s="12" t="n"/>
+      <c r="F17" s="12" t="n"/>
+      <c r="G17" s="12" t="n"/>
+    </row>
+    <row r="18" ht="20.05" customHeight="1" s="19">
+      <c r="A18" s="13" t="n"/>
+      <c r="B18" s="14" t="n"/>
+      <c r="C18" s="12" t="n"/>
+      <c r="D18" s="12" t="n"/>
+      <c r="E18" s="12" t="n"/>
+      <c r="F18" s="12" t="n"/>
+      <c r="G18" s="12" t="n"/>
+    </row>
+    <row r="19" ht="20.05" customHeight="1" s="19">
+      <c r="A19" s="13" t="n"/>
+      <c r="B19" s="14" t="n"/>
+      <c r="C19" s="12" t="n"/>
+      <c r="D19" s="12" t="n"/>
+      <c r="E19" s="12" t="n"/>
+      <c r="F19" s="12" t="n"/>
+      <c r="G19" s="12" t="n"/>
+    </row>
+    <row r="20" ht="20.05" customHeight="1" s="19">
+      <c r="A20" s="13" t="n"/>
+      <c r="B20" s="14" t="n"/>
+      <c r="C20" s="12" t="n"/>
+      <c r="D20" s="12" t="n"/>
+      <c r="E20" s="12" t="n"/>
+      <c r="F20" s="12" t="n"/>
+      <c r="G20" s="12" t="n"/>
+    </row>
+    <row r="21" ht="20.05" customHeight="1" s="19">
+      <c r="A21" s="13" t="n"/>
+      <c r="B21" s="14" t="n"/>
+      <c r="C21" s="12" t="n"/>
+      <c r="D21" s="12" t="n"/>
+      <c r="E21" s="12" t="n"/>
+      <c r="F21" s="12" t="n"/>
+      <c r="G21" s="12" t="n"/>
+    </row>
+    <row r="22" ht="20.05" customHeight="1" s="19">
+      <c r="A22" s="13" t="n"/>
+      <c r="B22" s="14" t="n"/>
+      <c r="C22" s="12" t="n"/>
+      <c r="D22" s="12" t="n"/>
+      <c r="E22" s="12" t="n"/>
+      <c r="F22" s="12" t="n"/>
+      <c r="G22" s="12" t="n"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1" s="19">
+      <c r="A23" s="13" t="n"/>
+      <c r="B23" s="14" t="n"/>
+      <c r="C23" s="12" t="n"/>
+      <c r="D23" s="12" t="n"/>
+      <c r="E23" s="12" t="n"/>
+      <c r="F23" s="12" t="n"/>
+      <c r="G23" s="12" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" scale="72" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" defaultGridColor="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="15" customWidth="1"/>
+    <col width="16.3516" customWidth="1" style="18" min="1" max="5"/>
+    <col width="16.3516" customWidth="1" style="18" min="6" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s" s="16">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s" s="17">
-        <v>11</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s" s="17">
-        <v>13</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+    <row r="1" ht="27.65" customHeight="1" s="19">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Table 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20.25" customHeight="1" s="19">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Formula</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="n"/>
+      <c r="D2" s="4" t="n"/>
+      <c r="E2" s="4" t="n"/>
+    </row>
+    <row r="3" ht="20.25" customHeight="1" s="19">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>int_1</t>
+        </is>
+      </c>
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>ADD(A,B)</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="n"/>
+      <c r="D3" s="8" t="n"/>
+      <c r="E3" s="8" t="n"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1" s="19">
+      <c r="A4" s="9" t="inlineStr">
+        <is>
+          <t>int_2</t>
+        </is>
+      </c>
+      <c r="B4" s="17" t="inlineStr">
+        <is>
+          <t>MIN(int_1, C)</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="n"/>
+      <c r="D4" s="12" t="n"/>
+      <c r="E4" s="12" t="n"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1" s="19">
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>final</t>
+        </is>
+      </c>
+      <c r="B5" s="17" t="inlineStr">
+        <is>
+          <t>MUL(int_2, C)</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="n"/>
+      <c r="D5" s="12" t="n"/>
+      <c r="E5" s="12" t="n"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1" s="19">
+      <c r="A6" s="13" t="n"/>
+      <c r="B6" s="14" t="n"/>
+      <c r="C6" s="12" t="n"/>
+      <c r="D6" s="12" t="n"/>
+      <c r="E6" s="12" t="n"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1" s="19">
+      <c r="A7" s="13" t="n"/>
+      <c r="B7" s="14" t="n"/>
+      <c r="C7" s="12" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="E7" s="12" t="n"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1" s="19">
+      <c r="A8" s="13" t="n"/>
+      <c r="B8" s="14" t="n"/>
+      <c r="C8" s="12" t="n"/>
+      <c r="D8" s="12" t="n"/>
+      <c r="E8" s="12" t="n"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1" s="19">
+      <c r="A9" s="13" t="n"/>
+      <c r="B9" s="14" t="n"/>
+      <c r="C9" s="12" t="n"/>
+      <c r="D9" s="12" t="n"/>
+      <c r="E9" s="12" t="n"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1" s="19">
+      <c r="A10" s="13" t="n"/>
+      <c r="B10" s="14" t="n"/>
+      <c r="C10" s="12" t="n"/>
+      <c r="D10" s="12" t="n"/>
+      <c r="E10" s="12" t="n"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1" s="19">
+      <c r="A11" s="13" t="n"/>
+      <c r="B11" s="14" t="n"/>
+      <c r="C11" s="12" t="n"/>
+      <c r="D11" s="12" t="n"/>
+      <c r="E11" s="12" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" defaultGridColor="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="18" customWidth="1"/>
+    <col width="16.3516" customWidth="1" style="18" min="1" max="5"/>
+    <col width="16.3516" customWidth="1" style="18" min="6" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="5">
-        <v>8</v>
+    <row r="1" ht="27.65" customHeight="1" s="19">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Table 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20.25" customHeight="1" s="19">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="n"/>
+      <c r="E2" s="4" t="n"/>
+    </row>
+    <row r="3" ht="20.25" customHeight="1" s="19">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>int_1</t>
+        </is>
       </c>
       <c r="B3" s="6">
         <f>'Values'!B3+'Values'!B4</f>
-        <v>20</v>
-      </c>
-      <c r="C3" s="7">
+        <v/>
+      </c>
+      <c r="C3" s="8" t="n">
         <v>2011</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="D3" s="8" t="n"/>
+      <c r="E3" s="8" t="n"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1" s="19">
+      <c r="A4" s="9" t="inlineStr">
+        <is>
+          <t>int_2</t>
+        </is>
+      </c>
+      <c r="B4" s="14">
         <f>MIN(B3,'Values'!B5)</f>
-        <v>15</v>
-      </c>
-      <c r="C4" s="11">
+        <v/>
+      </c>
+      <c r="C4" s="12" t="n">
         <v>2011</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="D4" s="12" t="n"/>
+      <c r="E4" s="12" t="n"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1" s="19">
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>final</t>
+        </is>
+      </c>
+      <c r="B5" s="14">
         <f>B4*'Values'!B5</f>
-        <v>225</v>
-      </c>
-      <c r="C5" s="11">
+        <v/>
+      </c>
+      <c r="C5" s="12" t="n">
         <v>2011</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="D5" s="12" t="n"/>
+      <c r="E5" s="12" t="n"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1" s="19">
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t>int_1</t>
+        </is>
+      </c>
+      <c r="B6" s="14">
         <f>'Values'!B6+'Values'!B7</f>
-        <v>3</v>
-      </c>
-      <c r="C6" s="11">
+        <v/>
+      </c>
+      <c r="C6" s="12" t="n">
         <v>2012</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B7" s="10">
+      <c r="D6" s="12" t="n"/>
+      <c r="E6" s="12" t="n"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1" s="19">
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>int_2</t>
+        </is>
+      </c>
+      <c r="B7" s="14">
         <f>MIN(B6,'Values'!B5)</f>
-        <v>3</v>
-      </c>
-      <c r="C7" s="11">
+        <v/>
+      </c>
+      <c r="C7" s="12" t="n">
         <v>2012</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="B8" s="10">
+      <c r="D7" s="12" t="n"/>
+      <c r="E7" s="12" t="n"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1" s="19">
+      <c r="A8" s="9" t="inlineStr">
+        <is>
+          <t>final</t>
+        </is>
+      </c>
+      <c r="B8" s="14">
         <f>B7*'Values'!B5</f>
-        <v>45</v>
-      </c>
-      <c r="C8" s="11">
+        <v/>
+      </c>
+      <c r="C8" s="12" t="n">
         <v>2012</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="D8" s="12" t="n"/>
+      <c r="E8" s="12" t="n"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1" s="19">
+      <c r="A9" s="13" t="n"/>
+      <c r="B9" s="14" t="n"/>
+      <c r="C9" s="12" t="n"/>
+      <c r="D9" s="12" t="n"/>
+      <c r="E9" s="12" t="n"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1" s="19">
+      <c r="A10" s="13" t="n"/>
+      <c r="B10" s="14" t="n"/>
+      <c r="C10" s="12" t="n"/>
+      <c r="D10" s="12" t="n"/>
+      <c r="E10" s="12" t="n"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1" s="19">
+      <c r="A11" s="13" t="n"/>
+      <c r="B11" s="14" t="n"/>
+      <c r="C11" s="12" t="n"/>
+      <c r="D11" s="12" t="n"/>
+      <c r="E11" s="12" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Table 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>int_1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>int_2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>final</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>225</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>int_1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>int_2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>final</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>45</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2012</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>